--- a/PPA2/ExcelTemplate/PPA_Template_CommDesign.xlsx
+++ b/PPA2/ExcelTemplate/PPA_Template_CommDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B52815A-BD37-4E99-8055-A51D45B82B52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F4D146-C097-4432-8AA5-DDAD5273B2A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <sheet name="5UseExistingAssets" sheetId="17" r:id="rId8"/>
     <sheet name="6NaturalRsrcePreservn" sheetId="18" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">import!$A$1:$G$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lookup_helper!$A$3:$I$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">import!$A$1:$G$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lookup_helper!$A$3:$I$119</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1TranspoChoice'!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2CompactDev'!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3MixedUseDev'!$A$1:$H$30</definedName>
@@ -55,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="253">
   <si>
     <t>data_item</t>
   </si>
@@ -805,6 +802,15 @@
   </si>
   <si>
     <t>Acres of forest, agricultural land, or park/open space within 0.5mi of project location</t>
+  </si>
+  <si>
+    <t>anyplace</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
   </si>
 </sst>
 </file>
@@ -815,8 +821,8 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1500,7 +1506,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1508,7 +1514,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1521,21 +1527,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -8845,76 +8851,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="import"/>
-      <sheetName val="lookup_helper"/>
-      <sheetName val="0TitlePg"/>
-      <sheetName val="1ReduceVMT"/>
-      <sheetName val="2ReduceCongestion"/>
-      <sheetName val="3Multimodal"/>
-      <sheetName val="4EconProsperity"/>
-      <sheetName val="5Freight"/>
-      <sheetName val="6Safety"/>
-      <sheetName val="7SGR"/>
-      <sheetName val="8SocioEconEquity"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>Project</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>Community Type</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>Region</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79">
-            <v>0.68447077769432152</v>
-          </cell>
-          <cell r="E79">
-            <v>0.68192319179405259</v>
-          </cell>
-          <cell r="F79">
-            <v>0.62622069700880123</v>
-          </cell>
-          <cell r="G79">
-            <v>0.99998912009623475</v>
-          </cell>
-          <cell r="H79">
-            <v>0.65824713128427348</v>
-          </cell>
-          <cell r="I79">
-            <v>0.93085349575304976</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9213,11 +9149,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9263,1163 +9199,1171 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>60000</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1.41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1013.770763052209</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>1364.000856776242</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3842.410877719361</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>2709.1952208835341</v>
+        <v>1013.770763052209</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>7127.5982283250496</v>
+        <v>1364.000856776242</v>
       </c>
       <c r="E10" s="2">
-        <v>37354.023709342597</v>
+        <v>3842.410877719361</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>45512.183253012037</v>
+        <v>2709.1952208835341</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>115470.05312773889</v>
+        <v>7127.5982283250496</v>
       </c>
       <c r="E11" s="2">
-        <v>475047.24569611409</v>
+        <v>37354.023709342597</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>6491.7790361445777</v>
+        <v>45512.183253012037</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>3942.7378655082048</v>
+        <v>115470.05312773889</v>
       </c>
       <c r="E12" s="2">
-        <v>22213.193547074628</v>
+        <v>475047.24569611409</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>1.2211646586345379</v>
+        <v>6491.7790361445777</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>2.8359657898456958</v>
+        <v>3942.7378655082048</v>
       </c>
       <c r="E13" s="2">
-        <v>4.6382414187566914</v>
+        <v>22213.193547074628</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>5.2928514056224891</v>
+        <v>1.2211646586345379</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>11.725412674938291</v>
+        <v>2.8359657898456958</v>
       </c>
       <c r="E14" s="2">
-        <v>38.186082797940898</v>
+        <v>4.6382414187566914</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>94.170281124498004</v>
+        <v>5.2928514056224891</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>163.7723231043594</v>
+        <v>11.725412674938291</v>
       </c>
       <c r="E15" s="2">
-        <v>492.55290133648589</v>
+        <v>38.186082797940898</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>10.89180722891566</v>
+        <v>94.170281124498004</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>6.3673234849555804</v>
+        <v>163.7723231043594</v>
       </c>
       <c r="E16" s="2">
-        <v>19.46065842045931</v>
+        <v>492.55290133648589</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>7.5514457831325306</v>
+        <v>10.89180722891566</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>9.6835892389165004</v>
+        <v>6.3673234849555804</v>
       </c>
       <c r="E17" s="2">
-        <v>17.147198276435411</v>
+        <v>19.46065842045931</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>19.925100401606429</v>
+        <v>7.5514457831325306</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>43.011998510238037</v>
+        <v>9.6835892389165004</v>
       </c>
       <c r="E18" s="2">
-        <v>140.10012353515299</v>
+        <v>17.147198276435411</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>238.27309236947789</v>
+        <v>19.925100401606429</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>144.64461021519989</v>
+        <v>43.011998510238037</v>
       </c>
       <c r="E19" s="2">
-        <v>520.32769799543757</v>
+        <v>140.10012353515299</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>51.080883534136547</v>
+        <v>238.27309236947789</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>25.241365850741079</v>
+        <v>144.64461021519989</v>
       </c>
       <c r="E20" s="2">
-        <v>77.938922900995635</v>
+        <v>520.32769799543757</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>56</v>
+        <v>51.080883534136547</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>1498</v>
+        <v>25.241365850741079</v>
       </c>
       <c r="E21" s="2">
-        <v>55020</v>
+        <v>77.938922900995635</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>41.285465803940781</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>61.135362311155802</v>
-      </c>
-      <c r="E22">
-        <v>63.369834818958772</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>1498</v>
+      </c>
+      <c r="E22" s="2">
+        <v>55020</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>41.285465803940781</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>41</v>
+        <v>61.135362311155802</v>
       </c>
       <c r="E23">
-        <v>1113</v>
+        <v>63.369834818958772</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>1.474480921569314</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
-        <v>1.6732642555122741</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>1.2819088722919141</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3.5714285714285719E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.474480921569314</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="1">
-        <v>2.7369826435246991E-2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.022900763358779E-2</v>
+      <c r="D25" s="3">
+        <v>1.6732642555122741</v>
+      </c>
+      <c r="E25">
+        <v>1.2819088722919141</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.5714285714285719E-2</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1">
+        <v>2.7369826435246991E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.022900763358779E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
         <v>202</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>6723</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2.1232525270598122</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4">
-        <v>0.28524510017006321</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.40140092908768138</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2.1232525270598122</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>0.28524510017006321</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.40140092908768138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
         <v>0.13484646194926569</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>0.1221919302071974</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>7.8499999999999988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1175.845221386116</v>
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>7.8499999999999988</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>145.36370361752071</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1175.845221386116</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>0.1236248623319337</v>
+        <v>145.36370361752071</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1021114271418558</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5">
-        <v>5.8844134774233253E-2</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1.480071598380431E-2</v>
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.1236248623319337</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.1021114271418558</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5">
+        <v>5.8844134774233253E-2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1.480071598380431E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B51" s="7">
         <v>7460.2525126650989</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B52" s="7">
         <v>63.359266107107317</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B53" s="7">
         <v>39.857150159123393</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B54" s="7">
         <v>1.1478152403679189</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B55" s="7">
         <v>1.162867114075685</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B56" s="7">
         <v>1.323087321541778</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B57" s="7">
         <v>1.2010105753672351</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B58" s="7">
         <v>7460.2525126827086</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B59" s="7">
         <v>66.431990942696686</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B60" s="7">
         <v>54.409268026535017</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B61" s="7">
         <v>1.081819835884438</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B62" s="7">
         <v>1.091630634013671</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B63" s="7">
         <v>1.10910333948567</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B64" s="7">
         <v>1.0947187607200981</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1.872619731652339</v>
-      </c>
-      <c r="D64">
-        <v>7.4149284958128156E-2</v>
-      </c>
-      <c r="E64">
-        <v>7.332683167880813E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2">
-        <v>0.33368336973414081</v>
+        <v>1.872619731652339</v>
       </c>
       <c r="D65">
-        <v>9.9496332560479198E-2</v>
+        <v>7.4149284958128156E-2</v>
       </c>
       <c r="E65">
-        <v>0.1052465714535069</v>
+        <v>7.332683167880813E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.33368336973414081</v>
+      </c>
+      <c r="D66">
+        <v>9.9496332560479198E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.1052465714535069</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1.3624389724527719</v>
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="2">
-        <v>1.475654647382425</v>
+        <v>1.3624389724527719</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2">
-        <v>2.8380936198351971</v>
-      </c>
-      <c r="D69">
-        <v>1.4432109489386511</v>
-      </c>
-      <c r="E69">
-        <v>0.38506745756398192</v>
+        <v>1.475654647382425</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
-        <v>1747</v>
+        <v>2.8380936198351971</v>
+      </c>
+      <c r="D70">
+        <v>1.4432109489386511</v>
+      </c>
+      <c r="E70">
+        <v>0.38506745756398192</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2">
-        <v>4050</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2">
-        <v>0.69863722615145762</v>
-      </c>
-      <c r="D72">
-        <v>0.34730153421679688</v>
-      </c>
-      <c r="E72">
-        <v>0.3746385676273582</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2">
-        <v>1013.770763052209</v>
+        <v>0.69863722615145762</v>
+      </c>
+      <c r="D73">
+        <v>0.34730153421679688</v>
+      </c>
+      <c r="E73">
+        <v>0.3746385676273582</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1013.770763052209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B75" s="2">
         <v>2709.1952208835341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
-        <v>45512.183253012037</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="2">
-        <v>6491.7790361445777</v>
+        <v>45512.183253012037</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2">
-        <v>272.66024096385541</v>
+        <v>6491.7790361445777</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2">
-        <v>795.25333333333333</v>
+        <v>272.66024096385541</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2">
-        <v>12386.82514056225</v>
+        <v>795.25333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2">
+        <v>12386.82514056225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B81" s="2">
         <v>1514.9185542168671</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
-        <v>1.2211646586345379</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2">
-        <v>5.2928514056224891</v>
+        <v>1.2211646586345379</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2">
-        <v>94.170281124498004</v>
+        <v>5.2928514056224891</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2">
-        <v>10.89180722891566</v>
+        <v>94.170281124498004</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2">
-        <v>7.5514457831325306</v>
+        <v>10.89180722891566</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2">
-        <v>19.925100401606429</v>
+        <v>7.5514457831325306</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
-        <v>238.27309236947789</v>
+        <v>19.925100401606429</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
-        <v>51.080883534136547</v>
+        <v>238.27309236947789</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
-        <v>5797</v>
-      </c>
-      <c r="C89" s="2">
-        <v>6115</v>
+        <v>51.080883534136547</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
-        <v>1916</v>
+        <v>5797</v>
       </c>
       <c r="C90" s="2">
-        <v>2072.611115859987</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
-        <v>1769</v>
+        <v>1916</v>
       </c>
       <c r="C91" s="2">
-        <v>2761.6599999999989</v>
+        <v>2072.611115859987</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
-        <v>657</v>
+        <v>1769</v>
       </c>
       <c r="C92" s="2">
-        <v>796</v>
+        <v>2761.6599999999989</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
-        <v>125.11</v>
+        <v>657</v>
       </c>
       <c r="C93" s="2">
-        <v>134.03</v>
+        <v>796</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
-        <v>19593</v>
+        <v>125.11</v>
       </c>
       <c r="C94" s="2">
-        <v>21044</v>
+        <v>134.03</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
-        <v>6806</v>
+        <v>19593</v>
       </c>
       <c r="C95" s="2">
-        <v>7661</v>
+        <v>21044</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
-        <v>10373</v>
+        <v>6806</v>
       </c>
       <c r="C96" s="2">
-        <v>10477</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2">
-        <v>184</v>
+        <v>10373</v>
       </c>
       <c r="C97" s="2">
-        <v>294</v>
+        <v>10477</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="C98" s="2">
-        <v>429</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2">
-        <v>1526</v>
+        <v>381</v>
       </c>
       <c r="C99" s="2">
-        <v>1827</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1">
-        <v>7.072357263990954E-2</v>
-      </c>
-      <c r="C100" s="1">
-        <v>4.853240442342649E-2</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.1343871705182399</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0.13021497769289109</v>
+        <v>97</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1526</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1827</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>0.34736895830143422</v>
-      </c>
-      <c r="C101">
-        <v>0.36404675917126023</v>
+        <v>98</v>
+      </c>
+      <c r="B101" s="1">
+        <v>7.072357263990954E-2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4.853240442342649E-2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.1343871705182399</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.13021497769289109</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102">
-        <v>0.5294237737967642</v>
+        <v>0.34736895830143422</v>
       </c>
       <c r="C102">
-        <v>0.49786162326553879</v>
+        <v>0.36404675917126023</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103">
-        <v>9.3911090695656604E-3</v>
+        <v>0.5294237737967642</v>
       </c>
       <c r="C103">
-        <v>1.397072799847938E-2</v>
+        <v>0.49786162326553879</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104">
-        <v>1.9445720410350639E-2</v>
+        <v>9.3911090695656604E-3</v>
       </c>
       <c r="C104">
-        <v>2.0385858201862759E-2</v>
+        <v>1.397072799847938E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105">
-        <v>7.7884958913897823E-2</v>
+        <v>1.9445720410350639E-2</v>
       </c>
       <c r="C105">
-        <v>8.6818095419121846E-2</v>
+        <v>2.0385858201862759E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2">
-        <v>3685</v>
-      </c>
-      <c r="C106" s="2">
-        <v>4834.2711158599859</v>
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>7.7884958913897823E-2</v>
+      </c>
+      <c r="C106">
+        <v>8.6818095419121846E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>13.047842643653521</v>
-      </c>
-      <c r="C107">
-        <v>69.301955921047991</v>
+        <v>104</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3685</v>
+      </c>
+      <c r="C107" s="2">
+        <v>4834.2711158599859</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108">
-        <v>1.3710956366053659</v>
+        <v>13.047842643653521</v>
       </c>
       <c r="C108">
-        <v>1.3582230858271871</v>
+        <v>69.301955921047991</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0.68447077769432152</v>
-      </c>
-      <c r="C109" s="5">
-        <v>0.68192319179405259</v>
-      </c>
-      <c r="D109" s="5">
-        <v>0.62622069700880123</v>
-      </c>
-      <c r="E109" s="5">
-        <v>0.99998912009623475</v>
-      </c>
-      <c r="F109" s="5">
-        <v>0.65824713128427348</v>
-      </c>
-      <c r="G109" s="5">
-        <v>0.93085349575304976</v>
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>1.3710956366053659</v>
+      </c>
+      <c r="C109">
+        <v>1.3582230858271871</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2">
-        <v>286</v>
-      </c>
-      <c r="C110" s="2">
-        <v>286</v>
+        <v>107</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.68447077769432152</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.68192319179405259</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0.62622069700880123</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.99998912009623475</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.65824713128427348</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.93085349575304976</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2">
-        <v>2616</v>
+        <v>286</v>
       </c>
       <c r="C111" s="2">
-        <v>2720.6935227499798</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2">
-        <v>434</v>
+        <v>2616</v>
       </c>
       <c r="C112" s="2">
-        <v>626.72434688000021</v>
+        <v>2720.6935227499798</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2">
-        <v>757</v>
+        <v>434</v>
       </c>
       <c r="C113" s="2">
-        <v>832.51186869999992</v>
+        <v>626.72434688000021</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2">
-        <v>27</v>
+        <v>757</v>
       </c>
       <c r="C114" s="2">
-        <v>99.321348959999995</v>
+        <v>832.51186869999992</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2">
-        <v>567</v>
+        <v>27</v>
       </c>
       <c r="C115" s="2">
-        <v>583.34135052999795</v>
+        <v>99.321348959999995</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="2">
+        <v>567</v>
+      </c>
+      <c r="C116" s="2">
+        <v>583.34135052999795</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B117" s="6">
         <v>145.36370361752071</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C117" s="6">
         <v>120.6959734688332</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G116" xr:uid="{B8AC6F49-A85F-41C2-8B75-187D5827CD3E}"/>
+  <autoFilter ref="A1:G117" xr:uid="{B8AC6F49-A85F-41C2-8B75-187D5827CD3E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10427,12 +10371,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57897DFD-9194-4D6D-AE68-E488992A8706}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10599,7 +10543,7 @@
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="46" t="s">
         <v>242</v>
       </c>
       <c r="C6" t="s">
@@ -11205,7 +11149,7 @@
         <v>224</v>
       </c>
       <c r="Q19" s="43">
-        <f>(Q18/5280)/D117</f>
+        <f>(Q18/5280)/D118</f>
         <v>1.0020756115251865</v>
       </c>
     </row>
@@ -14635,17 +14579,17 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
         <v>190</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP($A113,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>Freeway</v>
+        <v>anyplace</v>
       </c>
       <c r="E113">
         <f>VLOOKUP($A113,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -14670,17 +14614,17 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
         <v>190</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="str">
         <f>VLOOKUP($A114,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>60000</v>
+        <v>Freeway</v>
       </c>
       <c r="E114">
         <f>VLOOKUP($A114,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -14705,17 +14649,17 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C115" t="s">
         <v>190</v>
       </c>
       <c r="D115">
         <f>VLOOKUP($A115,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="E115">
         <f>VLOOKUP($A115,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -14740,17 +14684,17 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" t="s">
         <v>190</v>
       </c>
       <c r="D116">
         <f>VLOOKUP($A116,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E116">
         <f>VLOOKUP($A116,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -14775,17 +14719,17 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
         <v>190</v>
       </c>
       <c r="D117">
         <f>VLOOKUP($A117,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>1.41</v>
+        <v>65</v>
       </c>
       <c r="E117">
         <f>VLOOKUP($A117,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -14810,17 +14754,17 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="C118" t="s">
         <v>190</v>
       </c>
-      <c r="D118" t="str">
+      <c r="D118">
         <f>VLOOKUP($A118,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>Small-Town Established Communities</v>
+        <v>1.41</v>
       </c>
       <c r="E118">
         <f>VLOOKUP($A118,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -14843,9 +14787,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" t="s">
+        <v>190</v>
+      </c>
+      <c r="D119" t="str">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>Small-Town Established Communities</v>
+      </c>
+      <c r="E119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I118">
-    <sortCondition ref="C4:C118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I119">
+    <sortCondition ref="C4:C119"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14856,7 +14835,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14867,40 +14846,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="str">
+      <c r="A2" s="47" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -14913,60 +14892,60 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="30" t="str">
-        <f>VLOOKUP(A31,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+        <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>test_project_YubaCity</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="30" t="str">
-        <f>VLOOKUP(A32,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+        <f>VLOOKUP(A32,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="30" t="str">
-        <f>VLOOKUP(A33,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+        <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="33"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -15039,7 +15018,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <f ca="1">NOW()</f>
-        <v>43854.701530439816</v>
+        <v>43857.560598263888</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -15211,46 +15190,46 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
@@ -15308,16 +15287,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
@@ -15375,16 +15354,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
@@ -15393,19 +15372,19 @@
       <c r="A27" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="45" t="s">
         <v>242</v>
       </c>
     </row>
@@ -15419,7 +15398,7 @@
       <c r="A33" s="17"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="45" t="s">
         <v>246</v>
       </c>
     </row>
@@ -15496,7 +15475,7 @@
       <c r="A26" s="28"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
+      <c r="A29" s="45"/>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
@@ -15505,7 +15484,7 @@
       <c r="A31" s="17"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="45"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
